--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111347.5499905291</v>
+        <v>109459.9684741267</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>549869.5336917775</v>
+        <v>438666.7624960555</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>109.7897596937663</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>61.4954412004503</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>6.837139712981789</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.16470695741906</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28.90966800344418</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>197.8418203537992</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.3159054168623</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>139.2886326231161</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1190,13 +1190,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>93.48944721115194</v>
+        <v>270.6226856612333</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>28.51033041214347</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>173.3035671421253</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274164</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>62.56378259042548</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>237.3965091869248</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>101.238660331294</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>197.6165621654129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>101.5008511078723</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>160.4555852138052</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>187.8326399421086</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>150.2625400855517</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>115.1384561326075</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>103.4286568439264</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>107.0087045428522</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>169.7438101404423</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>17.90786120993484</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700711</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896553</v>
+        <v>93.41221638965564</v>
       </c>
       <c r="E31" t="n">
-        <v>36.60092856329017</v>
+        <v>91.23070601801246</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897907</v>
+        <v>93.71057173897941</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571493</v>
+        <v>55.21598883571524</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>54.76109577523605</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550465</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298325</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700206</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952713</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080343</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604804</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235381</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3196,16 +3196,16 @@
         <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329169</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1271.984870679801</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C2" t="n">
-        <v>903.0223537393897</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>903.0223537393897</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>903.0223537393897</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>492.0364489497821</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="W2" t="n">
-        <v>2035.589960916693</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.124202655613</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y2" t="n">
-        <v>1271.984870679801</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="3">
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.9284171545818</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>235.9284171545818</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>706.7504923302536</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>706.7504923302536</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>706.7504923302536</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>417.5768819848215</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>417.5768819848215</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>417.5768819848215</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>417.5768819848215</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y4" t="n">
-        <v>417.5768819848215</v>
+        <v>210.9658229629848</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2118.304160219349</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>2147.505845071313</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>2147.505845071313</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4662,13 +4662,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>702.55736257324</v>
+        <v>558.0164765518583</v>
       </c>
       <c r="U7" t="n">
-        <v>702.55736257324</v>
+        <v>558.0164765518583</v>
       </c>
       <c r="V7" t="n">
-        <v>702.55736257324</v>
+        <v>558.0164765518583</v>
       </c>
       <c r="W7" t="n">
-        <v>702.55736257324</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="X7" t="n">
-        <v>702.55736257324</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.55736257324</v>
+        <v>268.5993065148977</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1954.141365880777</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2048.575150942547</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1954.141365880777</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.141365880777</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="9">
@@ -4884,10 +4884,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>404.9282174162494</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>404.9282174162494</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>404.9282174162494</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E10" t="n">
-        <v>404.9282174162494</v>
+        <v>229.6312428658945</v>
       </c>
       <c r="F10" t="n">
-        <v>404.9282174162494</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545818</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>404.9282174162494</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>404.9282174162494</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>404.9282174162494</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>404.9282174162494</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.9282174162494</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L12" t="n">
-        <v>97.21709146028584</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M12" t="n">
-        <v>754.998473976564</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N12" t="n">
-        <v>1559.410052240715</v>
+        <v>1824.002963247254</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2072.756377331216</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>328.588153130794</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>328.588153130794</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>328.588153130794</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>328.588153130794</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688102</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799395</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471223</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.60808497467</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980067</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.08282758575</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347411</v>
       </c>
       <c r="U13" t="n">
-        <v>835.416391538794</v>
+        <v>1275.130855347411</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>1020.446367141525</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>731.029197104564</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>731.029197104564</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>510.2366179610337</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,40 +5288,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171745</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1080.303607295999</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N15" t="n">
-        <v>1884.71518556015</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O15" t="n">
-        <v>2554.178946862809</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P15" t="n">
         <v>2554.178946862809</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>981.5095496229246</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>812.5733666950177</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>662.456727282682</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>514.5436337002889</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>367.6536862023785</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>199.4783645221991</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V16" t="n">
-        <v>755.183133481126</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W16" t="n">
-        <v>465.7659634441654</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X16" t="n">
-        <v>465.7659634441654</v>
+        <v>981.5095496229246</v>
       </c>
       <c r="Y16" t="n">
-        <v>266.1532743881928</v>
+        <v>981.5095496229246</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5510,25 +5510,25 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899127</v>
@@ -5537,22 +5537,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M18" t="n">
-        <v>417.5524109899876</v>
+        <v>967.054688195977</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022018</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>563.1598612984388</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="C19" t="n">
-        <v>394.223678370532</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1396.390158327728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1107.261519541286</v>
+        <v>1113.054506646595</v>
       </c>
       <c r="V19" t="n">
-        <v>852.5770313353995</v>
+        <v>1113.054506646595</v>
       </c>
       <c r="W19" t="n">
-        <v>563.1598612984388</v>
+        <v>1113.054506646595</v>
       </c>
       <c r="X19" t="n">
-        <v>563.1598612984388</v>
+        <v>1113.054506646595</v>
       </c>
       <c r="Y19" t="n">
-        <v>563.1598612984388</v>
+        <v>892.2619275030652</v>
       </c>
     </row>
     <row r="20">
@@ -5747,16 +5747,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5826,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L21" t="n">
-        <v>711.1141612171745</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M21" t="n">
-        <v>1479.482307609636</v>
+        <v>967.054688195977</v>
       </c>
       <c r="N21" t="n">
-        <v>2192.176613678825</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O21" t="n">
         <v>2440.930027762787</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>582.2416896507652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5929,31 +5929,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1309.18633122244</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1085.400916011945</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150547</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X22" t="n">
-        <v>803.0342687942954</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>582.2416896507652</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6054,31 +6054,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>225.285854896922</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>636.1761237414347</v>
       </c>
       <c r="L24" t="n">
-        <v>711.1141612171746</v>
+        <v>1250.073193498323</v>
       </c>
       <c r="M24" t="n">
-        <v>1479.482307609636</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.893885873787</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O24" t="n">
         <v>2623.573505376138</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>394.223678370532</v>
+        <v>538.801986819813</v>
       </c>
       <c r="C25" t="n">
-        <v>394.223678370532</v>
+        <v>369.8658038919061</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609666</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550798</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W25" t="n">
-        <v>731.3177283550798</v>
+        <v>720.4504516500527</v>
       </c>
       <c r="X25" t="n">
-        <v>731.3177283550798</v>
+        <v>720.4504516500527</v>
       </c>
       <c r="Y25" t="n">
-        <v>510.5251492115497</v>
+        <v>720.4504516500527</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,49 +6209,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823778</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,19 +6300,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>436.8967109626376</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>1050.793780719526</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1819.161927111988</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>523.5986531011365</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>933.2366688293936</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>933.2366688293936</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>705.2471179313762</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>705.2471179313762</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,28 +6473,28 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
@@ -6528,28 +6528,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>508.1073603047985</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163776</v>
+        <v>547.3312808061787</v>
       </c>
       <c r="C31" t="n">
-        <v>491.3888261698415</v>
+        <v>434.1559631596422</v>
       </c>
       <c r="D31" t="n">
-        <v>397.0330520388765</v>
+        <v>339.8001890286769</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264622</v>
+        <v>247.6479607276542</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264622</v>
+        <v>247.6479607276542</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>247.6479607276542</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569679</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864669</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933496</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.45090536675</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.668872196204</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353691</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021645</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056072</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899268</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096191</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167067</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356661996</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737479</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818931</v>
+        <v>902.6804289818891</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652466</v>
+        <v>730.4517433652422</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652466</v>
+        <v>565.4200295030826</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,46 +6689,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6768,25 +6768,25 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>436.8967109626376</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>1050.793780719526</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1819.161927111988</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083216</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,22 +6871,22 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025263</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,7 +6926,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,28 +6935,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,13 +7002,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7017,7 +7017,7 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
         <v>1288.32563221405</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7151,67 +7151,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,19 +7248,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>436.8967109626376</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>1050.793780719526</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1819.161927111988</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7348,13 +7348,13 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7403,25 +7403,25 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7433,7 +7433,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7476,28 +7476,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1819.161927111988</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7637,40 +7637,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605672</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8772,7 +8772,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9021,7 +9021,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,10 +23425,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>82.85726543250576</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,22 +23464,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>48.84084321165253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>47.67516803624208</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.9680911866819</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,22 +23941,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>120.046709950517</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>125.7817671847721</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>10.08817004149461</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>75.44711530348548</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>64.69352404932978</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>45.18681617428592</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,25 +24412,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>60.23811655577565</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>82.39383318338574</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>106.7208623434457</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,13 +24844,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>54.62977745472195</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437419</v>
+        <v>90.21779139437453</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348209</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-1.122657522500958e-12</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26314,10 +26314,10 @@
         <v>287364.6194524995</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524996</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="E2" t="n">
         <v>273720.3418163962</v>
@@ -26326,7 +26326,7 @@
         <v>273720.3418163962</v>
       </c>
       <c r="G2" t="n">
-        <v>273720.3418163962</v>
+        <v>273720.3418163963</v>
       </c>
       <c r="H2" t="n">
         <v>273720.3418163962</v>
@@ -26335,25 +26335,25 @@
         <v>273720.3418163962</v>
       </c>
       <c r="J2" t="n">
-        <v>273720.3418163963</v>
+        <v>273720.3418163962</v>
       </c>
       <c r="K2" t="n">
         <v>284775.4961416892</v>
       </c>
       <c r="L2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524989</v>
       </c>
       <c r="M2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524989</v>
       </c>
       <c r="N2" t="n">
         <v>287364.6194524993</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524988</v>
+        <v>287364.6194524989</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524988</v>
+        <v>287364.619452499</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284538</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008669</v>
+        <v>10342.90680086717</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.6053028454</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758286</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758359</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758438</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758745</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.793690575885</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758824</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758696</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758218</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477243</v>
+        <v>18952.41620477226</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189641</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="N4" t="n">
+        <v>23206.58093189631</v>
+      </c>
+      <c r="O4" t="n">
         <v>23206.58093189634</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189635</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189636</v>
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-524521.4770060736</v>
+        <v>-524521.4770060735</v>
       </c>
       <c r="C6" t="n">
-        <v>65446.40220847086</v>
+        <v>65446.40220847103</v>
       </c>
       <c r="D6" t="n">
-        <v>65446.40220847091</v>
+        <v>65446.40220847068</v>
       </c>
       <c r="E6" t="n">
-        <v>-344214.8142997924</v>
+        <v>-344312.2734257649</v>
       </c>
       <c r="F6" t="n">
-        <v>180945.2221771037</v>
+        <v>180847.7630511316</v>
       </c>
       <c r="G6" t="n">
-        <v>180945.2221771037</v>
+        <v>180847.7630511316</v>
       </c>
       <c r="H6" t="n">
-        <v>180945.2221771037</v>
+        <v>180847.7630511315</v>
       </c>
       <c r="I6" t="n">
-        <v>180945.2221771035</v>
+        <v>180847.7630511314</v>
       </c>
       <c r="J6" t="n">
-        <v>4522.00298451104</v>
+        <v>4424.543858538571</v>
       </c>
       <c r="K6" t="n">
-        <v>125032.2661038484</v>
+        <v>125013.7723659144</v>
       </c>
       <c r="L6" t="n">
-        <v>156100.0258997107</v>
+        <v>156100.02589971</v>
       </c>
       <c r="M6" t="n">
-        <v>31641.91746674034</v>
+        <v>31641.91746673995</v>
       </c>
       <c r="N6" t="n">
         <v>166442.9327005776</v>
       </c>
       <c r="O6" t="n">
-        <v>166442.932700577</v>
+        <v>166442.9327005772</v>
       </c>
       <c r="P6" t="n">
-        <v>122280.3273977314</v>
+        <v>122280.3273977318</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964068</v>
@@ -26719,10 +26719,10 @@
         <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964068</v>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108362</v>
+        <v>12.92863350108396</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855675</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>303.9944103270287</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>266.2568172696846</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>172.9948404689555</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>125.5004850227388</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>353.8241736600364</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>209.0342253879122</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.806844538052008</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>85.74647283496822</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,10 +27856,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>276.2416534673171</v>
+        <v>99.1084150172357</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>106.4552913801948</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>112.9783070998524</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2.98632585327141e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855672</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31136,7 +31136,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.29709682323505</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423973</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,7 +31835,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -31844,22 +31844,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>340.8546090773499</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>301.7970625436786</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>49.34760257487147</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>339.3147979156452</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32102,10 +32102,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32163,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -32321,28 +32321,28 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>196.1430416967705</v>
       </c>
       <c r="N18" t="n">
-        <v>380.4309478731437</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -32555,16 +32555,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>196.1430416967705</v>
       </c>
       <c r="N21" t="n">
-        <v>371.8925761935062</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32576,10 +32576,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,22 +32786,22 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>130.1089786359913</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>91.84465193776663</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,28 +33014,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>48.48571443651716</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33050,10 +33050,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,28 +33251,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>392.6063366508803</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33287,10 +33287,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,28 +33488,28 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>216.4869287318327</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33524,10 +33524,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946974</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,25 +33725,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
         <v>224.6051223555648</v>
@@ -33761,10 +33761,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,28 +33962,28 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>216.4869287318327</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33998,10 +33998,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565502</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,28 +34199,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>212.6272478467031</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34235,10 +34235,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.490283364748</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M12" t="n">
-        <v>664.4256389053315</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>486.2854237692856</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299136</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M15" t="n">
-        <v>372.9186324028531</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>687.3154601758654</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>519.7140715247521</v>
       </c>
       <c r="N18" t="n">
-        <v>728.431610133364</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>519.7140715247521</v>
       </c>
       <c r="N21" t="n">
-        <v>719.8932384537264</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>129.3623873097335</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>343.1107267700517</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>175.1095124747368</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>740.6069989111005</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584673</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084853</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075293</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341604</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491596</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403575</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043149</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>343.1107267700523</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M34" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
         <v>572.6057846157851</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M37" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>343.1107267700523</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>536.1982776746847</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
